--- a/dataTables/Colaboradores_INFO.xlsx
+++ b/dataTables/Colaboradores_INFO.xlsx
@@ -43,9 +43,6 @@
     <t>Nicolas Araújo</t>
   </si>
   <si>
-    <t>Emanuel  Scherer</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -83,13 +80,16 @@
   </si>
   <si>
     <t>Estagiário de Inovação</t>
+  </si>
+  <si>
+    <t>Emanuel Scherer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,12 +159,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -474,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -489,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75">
@@ -497,19 +506,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3">
         <v>43843</v>
@@ -520,19 +529,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3">
         <v>43843</v>
@@ -540,22 +549,22 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3">
         <v>43843</v>
@@ -563,22 +572,22 @@
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3">
         <v>43843</v>
@@ -589,19 +598,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
         <v>43843</v>
@@ -612,23 +621,26 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
         <v>43843</v>
       </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
